--- a/packages/i18n/excels/page-community.xlsx
+++ b/packages/i18n/excels/page-community.xlsx
@@ -16,17 +16,17 @@
     <t>Lang Key</t>
   </si>
   <si>
-    <t>zh</t>
+    <t>Locale: zh</t>
   </si>
   <si>
-    <t>en</t>
+    <t>Locale: en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -35,7 +35,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color rgb="000000"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="3d3fea"/>
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
@@ -60,10 +66,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,23 +419,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="50" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="2" max="3" width="150" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="40" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/packages/i18n/excels/page-community.xlsx
+++ b/packages/i18n/excels/page-community.xlsx
@@ -11,15 +11,531 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
   <si>
     <t>Lang Key</t>
   </si>
   <si>
-    <t>Locale: zh</t>
-  </si>
-  <si>
-    <t>Locale: en</t>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>/banner/title</t>
+  </si>
+  <si>
+    <t>Let’s build the database of the future together!</t>
+  </si>
+  <si>
+    <t>/banner/desc</t>
+  </si>
+  <si>
+    <t>Join our community to learn, contribute, grow, and connect with TiDB contributors and users all around the world!</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/title</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/label</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/isCN</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/link</t>
+  </si>
+  <si>
+    <t>https://asktug.com</t>
+  </si>
+  <si>
+    <t>/banner/navs/1/title</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>/banner/navs/1/label</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>/banner/navs/1/link</t>
+  </si>
+  <si>
+    <t>https://slack.tidb.io/invite?team=tidb-community&amp;channel=everyone</t>
+  </si>
+  <si>
+    <t>/banner/navs/2/title</t>
+  </si>
+  <si>
+    <t>Mailing List</t>
+  </si>
+  <si>
+    <t>/banner/navs/2/label</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
+  </si>
+  <si>
+    <t>/banner/navs/2/link</t>
+  </si>
+  <si>
+    <t>https://lists.tidb.io/g/main/subgroups</t>
+  </si>
+  <si>
+    <t>/banner/navs/3/title</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>/banner/navs/3/label</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>/banner/navs/3/link</t>
+  </si>
+  <si>
+    <t>https://docs.pingcap.com/tidb/stable</t>
+  </si>
+  <si>
+    <t>/activities/title</t>
+  </si>
+  <si>
+    <t>Meet the TiDB Community</t>
+  </si>
+  <si>
+    <t>/activities/desc</t>
+  </si>
+  <si>
+    <t>Meet other TiDB Community members IRL and online. Meet like-minded friends, share practical cases and technical experience.</t>
+  </si>
+  <si>
+    <t>/activities/activities/0/title</t>
+  </si>
+  <si>
+    <t>TiDB Incubator Program</t>
+  </si>
+  <si>
+    <t>/activities/activities/0/desc</t>
+  </si>
+  <si>
+    <t>TiDB Incubator Program is designed to ensure that new projects in the TiDB ecosystem can obtain resources and help from the community towards their desired maturity level.</t>
+  </si>
+  <si>
+    <t>/activities/activities/0/link</t>
+  </si>
+  <si>
+    <t>https://github.com/pingcap/community/tree/master/incubator</t>
+  </si>
+  <si>
+    <t>/activities/activities/0/img</t>
+  </si>
+  <si>
+    <t>https://contributor.tidb.io/static/event-TiDB-Incubator-Program-1ade37389dac75fc23b1d408b2011973.svg</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/title</t>
+  </si>
+  <si>
+    <t>TiDB Hackathon 2020</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/desc</t>
+  </si>
+  <si>
+    <t>The theme of Hackathon this year is [∞], by which we expect participants to innovate, to challenge, and to unlock the infinite power of TiDB.</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/link</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/community/events/hackathon2020/</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/img</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/static/tidb-hackathon2020-62c1c40e7dd9eb4a0eed8d00ea6507e5.jpg</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/title</t>
+  </si>
+  <si>
+    <t>High Performance TiDB Challenge</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/desc</t>
+  </si>
+  <si>
+    <t>High Performance TiDB Challenge is a mentoring program which focuses on workload optimization to bring TiDB performance to a higher level!</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/link</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/community/events/high-performance-tidb-challenge/</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/img</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/static/high-performance-tidb-challenge-ff7cb0ab67af3592ef7f1fe66151630c.png</t>
+  </si>
+  <si>
+    <t>/activities/viewAll/label</t>
+  </si>
+  <si>
+    <t>View All Events</t>
+  </si>
+  <si>
+    <t>/activities/viewAll/link</t>
+  </si>
+  <si>
+    <t>https://contributor.tidb.io/events</t>
+  </si>
+  <si>
+    <t>/learning/title</t>
+  </si>
+  <si>
+    <t>Learn How to Use TiDB</t>
+  </si>
+  <si>
+    <t>/learning/desc/0</t>
+  </si>
+  <si>
+    <t>PingCAP University is committed to cultivating first-class talents in developing, managing and applying distributed relational database systems. All training and certification courses are designed and taught by the official TiDB technical experts of PingCAP.</t>
+  </si>
+  <si>
+    <t>/learning/desc/1</t>
+  </si>
+  <si>
+    <t>You can also read the official document to learn the usage of TiDB.</t>
+  </si>
+  <si>
+    <t>/learning/btns/pu/label</t>
+  </si>
+  <si>
+    <t>PingCAP University</t>
+  </si>
+  <si>
+    <t>/learning/btns/pu/link</t>
+  </si>
+  <si>
+    <t>https://university.pingcap.com</t>
+  </si>
+  <si>
+    <t>/learning/btns/docs/label</t>
+  </si>
+  <si>
+    <t>/learning/btns/docs/link</t>
+  </si>
+  <si>
+    <t>/userGroup/title</t>
+  </si>
+  <si>
+    <t>Join User Group</t>
+  </si>
+  <si>
+    <t>/userGroup/desc</t>
+  </si>
+  <si>
+    <t>TUG (TiDB User Group) is an independent, self-organized, and non-profit organization that gathers the database and big data technology practitioners around the world. In TUG, you can increase your personal influence, open up your horizons and make like-minded friends.</t>
+  </si>
+  <si>
+    <t>/userGroup/btns/join/label</t>
+  </si>
+  <si>
+    <t>Join TUG</t>
+  </si>
+  <si>
+    <t>/userGroup/btns/join/link</t>
+  </si>
+  <si>
+    <t>https://tug.tidb.io</t>
+  </si>
+  <si>
+    <t>/userGroup/btns/ask/label</t>
+  </si>
+  <si>
+    <t>/userGroup/btns/ask/link</t>
+  </si>
+  <si>
+    <t>/contributor/title</t>
+  </si>
+  <si>
+    <t>Become a Contributor</t>
+  </si>
+  <si>
+    <t>/contributor/items/0/title</t>
+  </si>
+  <si>
+    <t>Contributing Guide</t>
+  </si>
+  <si>
+    <t>/contributor/items/0/desc</t>
+  </si>
+  <si>
+    <t>Development workflow, commit message formatting, contact points and other resources.</t>
+  </si>
+  <si>
+    <t>/contributor/items/0/link</t>
+  </si>
+  <si>
+    <t>https://github.com/pingcap/community/blob/master/contributors/README.md</t>
+  </si>
+  <si>
+    <t>/contributor/items/1/title</t>
+  </si>
+  <si>
+    <t>Join Developer Group</t>
+  </si>
+  <si>
+    <t>/contributor/items/1/desc</t>
+  </si>
+  <si>
+    <t>Learning knowledge and skills, sharing best practices, become a database expert, develop database standards.</t>
+  </si>
+  <si>
+    <t>/contributor/items/1/link</t>
+  </si>
+  <si>
+    <t>https://contributor.tidb.io</t>
+  </si>
+  <si>
+    <t>/contributor/items/2/title</t>
+  </si>
+  <si>
+    <t>Code of Conduct</t>
+  </si>
+  <si>
+    <t>/contributor/items/2/desc</t>
+  </si>
+  <si>
+    <t>Agreement on rules of behaviour for the members of TiDB Community.</t>
+  </si>
+  <si>
+    <t>/contributor/items/2/link</t>
+  </si>
+  <si>
+    <t>https://github.com/pingcap/community/blob/master/CODE_OF_CONDUCT.md</t>
+  </si>
+  <si>
+    <t>/career/title</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>/career/desc</t>
+  </si>
+  <si>
+    <t>Here you can find attractive job opportunities posted by TiDB users. It’s free to post and apply for a job. Wish you the best of luck in your search!</t>
+  </si>
+  <si>
+    <t>/career/certTitle</t>
+  </si>
+  <si>
+    <t>Certification</t>
+  </si>
+  <si>
+    <t>/career/job/title</t>
+  </si>
+  <si>
+    <t>Job Board</t>
+  </si>
+  <si>
+    <t>/career/job/viewAll/label</t>
+  </si>
+  <si>
+    <t>View More Opportunities</t>
+  </si>
+  <si>
+    <t>/career/job/viewAll/link</t>
+  </si>
+  <si>
+    <t>https://tidb-jobs.pingcap.com</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/iconId</t>
+  </si>
+  <si>
+    <t>paypay</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/position</t>
+  </si>
+  <si>
+    <t>资深 DBA 工程师</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/location</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/linkId</t>
+  </si>
+  <si>
+    <t>paypay/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/iconId</t>
+  </si>
+  <si>
+    <t>yichewang</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/position</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/location</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/linkId</t>
+  </si>
+  <si>
+    <t>yichewang/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/iconId</t>
+  </si>
+  <si>
+    <t>zhangmen</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/position</t>
+  </si>
+  <si>
+    <t>DBA - TiDB 专岗</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/linkId</t>
+  </si>
+  <si>
+    <t>zhangmen/dba-tidb</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/iconId</t>
+  </si>
+  <si>
+    <t>huya</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/position</t>
+  </si>
+  <si>
+    <t>DBA 工程师</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/location</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/linkId</t>
+  </si>
+  <si>
+    <t>huya/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/iconId</t>
+  </si>
+  <si>
+    <t>xiaomi</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/position</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/linkId</t>
+  </si>
+  <si>
+    <t>xiaomi/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/iconId</t>
+  </si>
+  <si>
+    <t>kingSoft</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/position</t>
+  </si>
+  <si>
+    <t>DBA 运维开发</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/location</t>
+  </si>
+  <si>
+    <t>广州/珠海</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/linkId</t>
+  </si>
+  <si>
+    <t>kingsoft/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/iconId</t>
+  </si>
+  <si>
+    <t>ucloud</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/position</t>
+  </si>
+  <si>
+    <t>Go 研发工程师</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/linkId</t>
+  </si>
+  <si>
+    <t>go-engineer-paas</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/iconId</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/position</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/linkId</t>
+  </si>
+  <si>
+    <t>go-engineer-tidb</t>
   </si>
 </sst>
 </file>
@@ -35,23 +551,28 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="000000"/>
+      <color rgb="ff000000"/>
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="3d3fea"/>
+      <color rgb="ff3d3fea"/>
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ffffff00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -76,6 +597,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -426,7 +951,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="3" width="150" style="1" customWidth="1"/>
+    <col min="2" max="3" width="100" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,6 +965,834 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/packages/i18n/excels/page-community.xlsx
+++ b/packages/i18n/excels/page-community.xlsx
@@ -22,187 +22,484 @@
     <t>en</t>
   </si>
   <si>
+    <t>/activities/activities/0/desc</t>
+  </si>
+  <si>
+    <t>TiDB Incubator Program is designed to ensure that new projects in the TiDB ecosystem can obtain resources and help from the community towards their desired maturity level.</t>
+  </si>
+  <si>
+    <t>/activities/activities/0/img</t>
+  </si>
+  <si>
+    <t>https://contributor.tidb.io/static/event-TiDB-Incubator-Program-1ade37389dac75fc23b1d408b2011973.svg</t>
+  </si>
+  <si>
+    <t>/activities/activities/0/link</t>
+  </si>
+  <si>
+    <t>https://github.com/pingcap/community/tree/master/incubator</t>
+  </si>
+  <si>
+    <t>/activities/activities/0/title</t>
+  </si>
+  <si>
+    <t>TiDB Incubator Program</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/desc</t>
+  </si>
+  <si>
+    <t>The theme of Hackathon this year is [∞], by which we expect participants to innovate, to challenge, and to unlock the infinite power of TiDB.</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/img</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/static/tidb-hackathon2020-62c1c40e7dd9eb4a0eed8d00ea6507e5.jpg</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/link</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/community/events/hackathon2020/</t>
+  </si>
+  <si>
+    <t>/activities/activities/1/title</t>
+  </si>
+  <si>
+    <t>TiDB Hackathon 2020</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/desc</t>
+  </si>
+  <si>
+    <t>High Performance TiDB Challenge is a mentoring program which focuses on workload optimization to bring TiDB performance to a higher level!</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/img</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/static/high-performance-tidb-challenge-ff7cb0ab67af3592ef7f1fe66151630c.png</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/link</t>
+  </si>
+  <si>
+    <t>https://pingcap.com/community/events/high-performance-tidb-challenge/</t>
+  </si>
+  <si>
+    <t>/activities/activities/2/title</t>
+  </si>
+  <si>
+    <t>High Performance TiDB Challenge</t>
+  </si>
+  <si>
+    <t>/activities/desc</t>
+  </si>
+  <si>
+    <t>Meet other TiDB Community members IRL and online. Meet like-minded friends, share practical cases and technical experience.</t>
+  </si>
+  <si>
+    <t>/activities/title</t>
+  </si>
+  <si>
+    <t>Meet the TiDB Community</t>
+  </si>
+  <si>
+    <t>/activities/viewAll/label</t>
+  </si>
+  <si>
+    <t>View All Events</t>
+  </si>
+  <si>
+    <t>/activities/viewAll/link</t>
+  </si>
+  <si>
+    <t>https://contributor.tidb.io/events</t>
+  </si>
+  <si>
+    <t>/banner/desc</t>
+  </si>
+  <si>
+    <t>Join our community to learn, contribute, grow, and connect with TiDB contributors and users all around the world!</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/isCN</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/label</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/link</t>
+  </si>
+  <si>
+    <t>https://asktug.com</t>
+  </si>
+  <si>
+    <t>/banner/navs/0/title</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>/banner/navs/1/label</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>/banner/navs/1/link</t>
+  </si>
+  <si>
+    <t>https://slack.tidb.io/invite?team=tidb-community&amp;channel=everyone</t>
+  </si>
+  <si>
+    <t>/banner/navs/1/title</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>/banner/navs/2/label</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
+  </si>
+  <si>
+    <t>/banner/navs/2/link</t>
+  </si>
+  <si>
+    <t>https://lists.tidb.io/g/main/subgroups</t>
+  </si>
+  <si>
+    <t>/banner/navs/2/title</t>
+  </si>
+  <si>
+    <t>Mailing List</t>
+  </si>
+  <si>
+    <t>/banner/navs/3/label</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>/banner/navs/3/link</t>
+  </si>
+  <si>
+    <t>https://docs.pingcap.com/tidb/stable</t>
+  </si>
+  <si>
+    <t>/banner/navs/3/title</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
     <t>/banner/title</t>
   </si>
   <si>
     <t>Let’s build the database of the future together!</t>
   </si>
   <si>
-    <t>/banner/desc</t>
-  </si>
-  <si>
-    <t>Join our community to learn, contribute, grow, and connect with TiDB contributors and users all around the world!</t>
-  </si>
-  <si>
-    <t>/banner/navs/0/title</t>
-  </si>
-  <si>
-    <t>Forum</t>
-  </si>
-  <si>
-    <t>/banner/navs/0/label</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>/banner/navs/0/isCN</t>
-  </si>
-  <si>
-    <t>/banner/navs/0/link</t>
-  </si>
-  <si>
-    <t>https://asktug.com</t>
-  </si>
-  <si>
-    <t>/banner/navs/1/title</t>
-  </si>
-  <si>
-    <t>Slack</t>
-  </si>
-  <si>
-    <t>/banner/navs/1/label</t>
-  </si>
-  <si>
-    <t>Join</t>
-  </si>
-  <si>
-    <t>/banner/navs/1/link</t>
-  </si>
-  <si>
-    <t>https://slack.tidb.io/invite?team=tidb-community&amp;channel=everyone</t>
-  </si>
-  <si>
-    <t>/banner/navs/2/title</t>
-  </si>
-  <si>
-    <t>Mailing List</t>
-  </si>
-  <si>
-    <t>/banner/navs/2/label</t>
-  </si>
-  <si>
-    <t>Subscribe</t>
-  </si>
-  <si>
-    <t>/banner/navs/2/link</t>
-  </si>
-  <si>
-    <t>https://lists.tidb.io/g/main/subgroups</t>
-  </si>
-  <si>
-    <t>/banner/navs/3/title</t>
-  </si>
-  <si>
-    <t>Docs</t>
-  </si>
-  <si>
-    <t>/banner/navs/3/label</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>/banner/navs/3/link</t>
-  </si>
-  <si>
-    <t>https://docs.pingcap.com/tidb/stable</t>
-  </si>
-  <si>
-    <t>/activities/title</t>
-  </si>
-  <si>
-    <t>Meet the TiDB Community</t>
-  </si>
-  <si>
-    <t>/activities/desc</t>
-  </si>
-  <si>
-    <t>Meet other TiDB Community members IRL and online. Meet like-minded friends, share practical cases and technical experience.</t>
-  </si>
-  <si>
-    <t>/activities/activities/0/title</t>
-  </si>
-  <si>
-    <t>TiDB Incubator Program</t>
-  </si>
-  <si>
-    <t>/activities/activities/0/desc</t>
-  </si>
-  <si>
-    <t>TiDB Incubator Program is designed to ensure that new projects in the TiDB ecosystem can obtain resources and help from the community towards their desired maturity level.</t>
-  </si>
-  <si>
-    <t>/activities/activities/0/link</t>
-  </si>
-  <si>
-    <t>https://github.com/pingcap/community/tree/master/incubator</t>
-  </si>
-  <si>
-    <t>/activities/activities/0/img</t>
-  </si>
-  <si>
-    <t>https://contributor.tidb.io/static/event-TiDB-Incubator-Program-1ade37389dac75fc23b1d408b2011973.svg</t>
-  </si>
-  <si>
-    <t>/activities/activities/1/title</t>
-  </si>
-  <si>
-    <t>TiDB Hackathon 2020</t>
-  </si>
-  <si>
-    <t>/activities/activities/1/desc</t>
-  </si>
-  <si>
-    <t>The theme of Hackathon this year is [∞], by which we expect participants to innovate, to challenge, and to unlock the infinite power of TiDB.</t>
-  </si>
-  <si>
-    <t>/activities/activities/1/link</t>
-  </si>
-  <si>
-    <t>https://pingcap.com/community/events/hackathon2020/</t>
-  </si>
-  <si>
-    <t>/activities/activities/1/img</t>
-  </si>
-  <si>
-    <t>https://pingcap.com/static/tidb-hackathon2020-62c1c40e7dd9eb4a0eed8d00ea6507e5.jpg</t>
-  </si>
-  <si>
-    <t>/activities/activities/2/title</t>
-  </si>
-  <si>
-    <t>High Performance TiDB Challenge</t>
-  </si>
-  <si>
-    <t>/activities/activities/2/desc</t>
-  </si>
-  <si>
-    <t>High Performance TiDB Challenge is a mentoring program which focuses on workload optimization to bring TiDB performance to a higher level!</t>
-  </si>
-  <si>
-    <t>/activities/activities/2/link</t>
-  </si>
-  <si>
-    <t>https://pingcap.com/community/events/high-performance-tidb-challenge/</t>
-  </si>
-  <si>
-    <t>/activities/activities/2/img</t>
-  </si>
-  <si>
-    <t>https://pingcap.com/static/high-performance-tidb-challenge-ff7cb0ab67af3592ef7f1fe66151630c.png</t>
-  </si>
-  <si>
-    <t>/activities/viewAll/label</t>
-  </si>
-  <si>
-    <t>View All Events</t>
-  </si>
-  <si>
-    <t>/activities/viewAll/link</t>
-  </si>
-  <si>
-    <t>https://contributor.tidb.io/events</t>
+    <t>/career/certTitle</t>
+  </si>
+  <si>
+    <t>Certification</t>
+  </si>
+  <si>
+    <t>/career/desc</t>
+  </si>
+  <si>
+    <t>Here you can find attractive job opportunities posted by TiDB users. It’s free to post and apply for a job. Wish you the best of luck in your search!</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/iconId</t>
+  </si>
+  <si>
+    <t>paypay</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/linkId</t>
+  </si>
+  <si>
+    <t>paypay/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/location</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>/career/job/items/0/position</t>
+  </si>
+  <si>
+    <t>资深 DBA 工程师</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/iconId</t>
+  </si>
+  <si>
+    <t>yichewang</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/linkId</t>
+  </si>
+  <si>
+    <t>yichewang/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/location</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>/career/job/items/1/position</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/iconId</t>
+  </si>
+  <si>
+    <t>zhangmen</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/linkId</t>
+  </si>
+  <si>
+    <t>zhangmen/dba-tidb</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/2/position</t>
+  </si>
+  <si>
+    <t>DBA - TiDB 专岗</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/iconId</t>
+  </si>
+  <si>
+    <t>huya</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/linkId</t>
+  </si>
+  <si>
+    <t>huya/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/location</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>/career/job/items/3/position</t>
+  </si>
+  <si>
+    <t>DBA 工程师</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/iconId</t>
+  </si>
+  <si>
+    <t>xiaomi</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/linkId</t>
+  </si>
+  <si>
+    <t>xiaomi/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/4/position</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/iconId</t>
+  </si>
+  <si>
+    <t>kingSoft</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/linkId</t>
+  </si>
+  <si>
+    <t>kingsoft/dba</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/location</t>
+  </si>
+  <si>
+    <t>广州/珠海</t>
+  </si>
+  <si>
+    <t>/career/job/items/5/position</t>
+  </si>
+  <si>
+    <t>DBA 运维开发</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/iconId</t>
+  </si>
+  <si>
+    <t>ucloud</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/linkId</t>
+  </si>
+  <si>
+    <t>go-engineer-paas</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/6/position</t>
+  </si>
+  <si>
+    <t>Go 研发工程师</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/iconId</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/linkId</t>
+  </si>
+  <si>
+    <t>go-engineer-tidb</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/location</t>
+  </si>
+  <si>
+    <t>/career/job/items/7/position</t>
+  </si>
+  <si>
+    <t>/career/job/title</t>
+  </si>
+  <si>
+    <t>Job Board</t>
+  </si>
+  <si>
+    <t>/career/job/viewAll/label</t>
+  </si>
+  <si>
+    <t>View More Opportunities</t>
+  </si>
+  <si>
+    <t>/career/job/viewAll/link</t>
+  </si>
+  <si>
+    <t>https://tidb-jobs.pingcap.com</t>
+  </si>
+  <si>
+    <t>/career/title</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>/contributor/items/0/desc</t>
+  </si>
+  <si>
+    <t>Development workflow, commit message formatting, contact points and other resources.</t>
+  </si>
+  <si>
+    <t>/contributor/items/0/link</t>
+  </si>
+  <si>
+    <t>https://github.com/pingcap/community/blob/master/contributors/README.md</t>
+  </si>
+  <si>
+    <t>/contributor/items/0/title</t>
+  </si>
+  <si>
+    <t>Contributing Guide</t>
+  </si>
+  <si>
+    <t>/contributor/items/1/desc</t>
+  </si>
+  <si>
+    <t>Learning knowledge and skills, sharing best practices, become a database expert, develop database standards.</t>
+  </si>
+  <si>
+    <t>/contributor/items/1/link</t>
+  </si>
+  <si>
+    <t>https://contributor.tidb.io</t>
+  </si>
+  <si>
+    <t>/contributor/items/1/title</t>
+  </si>
+  <si>
+    <t>Join Developer Group</t>
+  </si>
+  <si>
+    <t>/contributor/items/2/desc</t>
+  </si>
+  <si>
+    <t>Agreement on rules of behaviour for the members of TiDB Community.</t>
+  </si>
+  <si>
+    <t>/contributor/items/2/link</t>
+  </si>
+  <si>
+    <t>https://github.com/pingcap/community/blob/master/CODE_OF_CONDUCT.md</t>
+  </si>
+  <si>
+    <t>/contributor/items/2/title</t>
+  </si>
+  <si>
+    <t>Code of Conduct</t>
+  </si>
+  <si>
+    <t>/contributor/title</t>
+  </si>
+  <si>
+    <t>Become a Contributor</t>
+  </si>
+  <si>
+    <t>/learning/btns/docs/label</t>
+  </si>
+  <si>
+    <t>/learning/btns/docs/link</t>
+  </si>
+  <si>
+    <t>/learning/btns/pu/label</t>
+  </si>
+  <si>
+    <t>PingCAP University</t>
+  </si>
+  <si>
+    <t>/learning/btns/pu/link</t>
+  </si>
+  <si>
+    <t>https://university.pingcap.com</t>
+  </si>
+  <si>
+    <t>/learning/desc/0</t>
+  </si>
+  <si>
+    <t>PingCAP University is committed to cultivating first-class talents in developing, managing and applying distributed relational database systems. All training and certification courses are designed and taught by the official TiDB technical experts of PingCAP.</t>
+  </si>
+  <si>
+    <t>/learning/desc/1</t>
+  </si>
+  <si>
+    <t>You can also read the official document to learn the usage of TiDB.</t>
   </si>
   <si>
     <t>/learning/title</t>
@@ -211,331 +508,34 @@
     <t>Learn How to Use TiDB</t>
   </si>
   <si>
-    <t>/learning/desc/0</t>
-  </si>
-  <si>
-    <t>PingCAP University is committed to cultivating first-class talents in developing, managing and applying distributed relational database systems. All training and certification courses are designed and taught by the official TiDB technical experts of PingCAP.</t>
-  </si>
-  <si>
-    <t>/learning/desc/1</t>
-  </si>
-  <si>
-    <t>You can also read the official document to learn the usage of TiDB.</t>
-  </si>
-  <si>
-    <t>/learning/btns/pu/label</t>
-  </si>
-  <si>
-    <t>PingCAP University</t>
-  </si>
-  <si>
-    <t>/learning/btns/pu/link</t>
-  </si>
-  <si>
-    <t>https://university.pingcap.com</t>
-  </si>
-  <si>
-    <t>/learning/btns/docs/label</t>
-  </si>
-  <si>
-    <t>/learning/btns/docs/link</t>
+    <t>/userGroup/btns/ask/label</t>
+  </si>
+  <si>
+    <t>/userGroup/btns/ask/link</t>
+  </si>
+  <si>
+    <t>/userGroup/btns/join/label</t>
+  </si>
+  <si>
+    <t>Join TUG</t>
+  </si>
+  <si>
+    <t>/userGroup/btns/join/link</t>
+  </si>
+  <si>
+    <t>https://tug.tidb.io</t>
+  </si>
+  <si>
+    <t>/userGroup/desc</t>
+  </si>
+  <si>
+    <t>TUG (TiDB User Group) is an independent, self-organized, and non-profit organization that gathers the database and big data technology practitioners around the world. In TUG, you can increase your personal influence, open up your horizons and make like-minded friends.</t>
   </si>
   <si>
     <t>/userGroup/title</t>
   </si>
   <si>
     <t>Join User Group</t>
-  </si>
-  <si>
-    <t>/userGroup/desc</t>
-  </si>
-  <si>
-    <t>TUG (TiDB User Group) is an independent, self-organized, and non-profit organization that gathers the database and big data technology practitioners around the world. In TUG, you can increase your personal influence, open up your horizons and make like-minded friends.</t>
-  </si>
-  <si>
-    <t>/userGroup/btns/join/label</t>
-  </si>
-  <si>
-    <t>Join TUG</t>
-  </si>
-  <si>
-    <t>/userGroup/btns/join/link</t>
-  </si>
-  <si>
-    <t>https://tug.tidb.io</t>
-  </si>
-  <si>
-    <t>/userGroup/btns/ask/label</t>
-  </si>
-  <si>
-    <t>/userGroup/btns/ask/link</t>
-  </si>
-  <si>
-    <t>/contributor/title</t>
-  </si>
-  <si>
-    <t>Become a Contributor</t>
-  </si>
-  <si>
-    <t>/contributor/items/0/title</t>
-  </si>
-  <si>
-    <t>Contributing Guide</t>
-  </si>
-  <si>
-    <t>/contributor/items/0/desc</t>
-  </si>
-  <si>
-    <t>Development workflow, commit message formatting, contact points and other resources.</t>
-  </si>
-  <si>
-    <t>/contributor/items/0/link</t>
-  </si>
-  <si>
-    <t>https://github.com/pingcap/community/blob/master/contributors/README.md</t>
-  </si>
-  <si>
-    <t>/contributor/items/1/title</t>
-  </si>
-  <si>
-    <t>Join Developer Group</t>
-  </si>
-  <si>
-    <t>/contributor/items/1/desc</t>
-  </si>
-  <si>
-    <t>Learning knowledge and skills, sharing best practices, become a database expert, develop database standards.</t>
-  </si>
-  <si>
-    <t>/contributor/items/1/link</t>
-  </si>
-  <si>
-    <t>https://contributor.tidb.io</t>
-  </si>
-  <si>
-    <t>/contributor/items/2/title</t>
-  </si>
-  <si>
-    <t>Code of Conduct</t>
-  </si>
-  <si>
-    <t>/contributor/items/2/desc</t>
-  </si>
-  <si>
-    <t>Agreement on rules of behaviour for the members of TiDB Community.</t>
-  </si>
-  <si>
-    <t>/contributor/items/2/link</t>
-  </si>
-  <si>
-    <t>https://github.com/pingcap/community/blob/master/CODE_OF_CONDUCT.md</t>
-  </si>
-  <si>
-    <t>/career/title</t>
-  </si>
-  <si>
-    <t>Career</t>
-  </si>
-  <si>
-    <t>/career/desc</t>
-  </si>
-  <si>
-    <t>Here you can find attractive job opportunities posted by TiDB users. It’s free to post and apply for a job. Wish you the best of luck in your search!</t>
-  </si>
-  <si>
-    <t>/career/certTitle</t>
-  </si>
-  <si>
-    <t>Certification</t>
-  </si>
-  <si>
-    <t>/career/job/title</t>
-  </si>
-  <si>
-    <t>Job Board</t>
-  </si>
-  <si>
-    <t>/career/job/viewAll/label</t>
-  </si>
-  <si>
-    <t>View More Opportunities</t>
-  </si>
-  <si>
-    <t>/career/job/viewAll/link</t>
-  </si>
-  <si>
-    <t>https://tidb-jobs.pingcap.com</t>
-  </si>
-  <si>
-    <t>/career/job/items/0/iconId</t>
-  </si>
-  <si>
-    <t>paypay</t>
-  </si>
-  <si>
-    <t>/career/job/items/0/position</t>
-  </si>
-  <si>
-    <t>资深 DBA 工程师</t>
-  </si>
-  <si>
-    <t>/career/job/items/0/location</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>/career/job/items/0/linkId</t>
-  </si>
-  <si>
-    <t>paypay/dba</t>
-  </si>
-  <si>
-    <t>/career/job/items/1/iconId</t>
-  </si>
-  <si>
-    <t>yichewang</t>
-  </si>
-  <si>
-    <t>/career/job/items/1/position</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
-    <t>/career/job/items/1/location</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>/career/job/items/1/linkId</t>
-  </si>
-  <si>
-    <t>yichewang/dba</t>
-  </si>
-  <si>
-    <t>/career/job/items/2/iconId</t>
-  </si>
-  <si>
-    <t>zhangmen</t>
-  </si>
-  <si>
-    <t>/career/job/items/2/position</t>
-  </si>
-  <si>
-    <t>DBA - TiDB 专岗</t>
-  </si>
-  <si>
-    <t>/career/job/items/2/location</t>
-  </si>
-  <si>
-    <t>/career/job/items/2/linkId</t>
-  </si>
-  <si>
-    <t>zhangmen/dba-tidb</t>
-  </si>
-  <si>
-    <t>/career/job/items/3/iconId</t>
-  </si>
-  <si>
-    <t>huya</t>
-  </si>
-  <si>
-    <t>/career/job/items/3/position</t>
-  </si>
-  <si>
-    <t>DBA 工程师</t>
-  </si>
-  <si>
-    <t>/career/job/items/3/location</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>/career/job/items/3/linkId</t>
-  </si>
-  <si>
-    <t>huya/dba</t>
-  </si>
-  <si>
-    <t>/career/job/items/4/iconId</t>
-  </si>
-  <si>
-    <t>xiaomi</t>
-  </si>
-  <si>
-    <t>/career/job/items/4/position</t>
-  </si>
-  <si>
-    <t>/career/job/items/4/location</t>
-  </si>
-  <si>
-    <t>/career/job/items/4/linkId</t>
-  </si>
-  <si>
-    <t>xiaomi/dba</t>
-  </si>
-  <si>
-    <t>/career/job/items/5/iconId</t>
-  </si>
-  <si>
-    <t>kingSoft</t>
-  </si>
-  <si>
-    <t>/career/job/items/5/position</t>
-  </si>
-  <si>
-    <t>DBA 运维开发</t>
-  </si>
-  <si>
-    <t>/career/job/items/5/location</t>
-  </si>
-  <si>
-    <t>广州/珠海</t>
-  </si>
-  <si>
-    <t>/career/job/items/5/linkId</t>
-  </si>
-  <si>
-    <t>kingsoft/dba</t>
-  </si>
-  <si>
-    <t>/career/job/items/6/iconId</t>
-  </si>
-  <si>
-    <t>ucloud</t>
-  </si>
-  <si>
-    <t>/career/job/items/6/position</t>
-  </si>
-  <si>
-    <t>Go 研发工程师</t>
-  </si>
-  <si>
-    <t>/career/job/items/6/location</t>
-  </si>
-  <si>
-    <t>/career/job/items/6/linkId</t>
-  </si>
-  <si>
-    <t>go-engineer-paas</t>
-  </si>
-  <si>
-    <t>/career/job/items/7/iconId</t>
-  </si>
-  <si>
-    <t>/career/job/items/7/position</t>
-  </si>
-  <si>
-    <t>/career/job/items/7/location</t>
-  </si>
-  <si>
-    <t>/career/job/items/7/linkId</t>
-  </si>
-  <si>
-    <t>go-engineer-tidb</t>
   </si>
 </sst>
 </file>
@@ -1006,125 +1006,125 @@
         <v>11</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
+      <c r="C19" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1295,214 +1295,214 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1520,160 +1520,160 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1682,106 +1682,106 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
